--- a/artifacts/analyzed_output.xlsx
+++ b/artifacts/analyzed_output.xlsx
@@ -528,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.284952485785819</v>
+        <v>0.6774193329864731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5542099207376986</v>
+        <v>0.04783950609901311</v>
       </c>
       <c r="G2" t="n">
         <v>8.307692307692308</v>
@@ -579,10 +579,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1250238235790184</v>
+        <v>0.2530120451444332</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4315002529937595</v>
+        <v>0.09181415919047106</v>
       </c>
       <c r="G3" t="n">
         <v>11.3</v>
@@ -630,10 +630,10 @@
         <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1009872534872535</v>
+        <v>0.2068965481569561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4310377585377584</v>
+        <v>0.07661822975347658</v>
       </c>
       <c r="G4" t="n">
         <v>13.28070175438597</v>
@@ -681,10 +681,10 @@
         <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04176069831807537</v>
+        <v>-0.3333333301587302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4087493790362642</v>
+        <v>0.1388888887051734</v>
       </c>
       <c r="G5" t="n">
         <v>14.53846153846154</v>
@@ -732,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1170538720538721</v>
+        <v>0.4074073923182447</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5315095398428731</v>
+        <v>0.06490384599782729</v>
       </c>
       <c r="G6" t="n">
         <v>10.66666666666667</v>
@@ -783,10 +783,10 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1255648026375874</v>
+        <v>0.5514018640055901</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5681475240652456</v>
+        <v>0.08465189866720577</v>
       </c>
       <c r="G7" t="n">
         <v>14.36363636363636</v>
@@ -834,10 +834,10 @@
         <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01335016835016835</v>
+        <v>-0.366336630036271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4681355952087657</v>
+        <v>0.1064278186444386</v>
       </c>
       <c r="G8" t="n">
         <v>11.57317073170732</v>
@@ -885,10 +885,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1136776753712238</v>
+        <v>0.4857142718367351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.444905273937532</v>
+        <v>0.05912162152175402</v>
       </c>
       <c r="G9" t="n">
         <v>12.33333333333333</v>
@@ -936,10 +936,10 @@
         <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08265546622689479</v>
+        <v>-0.1807228893888809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4187658901944616</v>
+        <v>0.111111110962368</v>
       </c>
       <c r="G10" t="n">
         <v>13.10526315789474</v>
@@ -987,10 +987,10 @@
         <v>174</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1116670181140095</v>
+        <v>-0.1561461788832353</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4796063694344501</v>
+        <v>0.1406542055417504</v>
       </c>
       <c r="G11" t="n">
         <v>8.95397489539749</v>
@@ -1038,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09910467532467529</v>
+        <v>0.4864864799123449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.394394458874459</v>
+        <v>0.07863974486860814</v>
       </c>
       <c r="G12" t="n">
         <v>14.04477611940299</v>
@@ -1089,10 +1089,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1360335497835497</v>
+        <v>0.5306122394835486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4372802197802199</v>
+        <v>0.09712586709898328</v>
       </c>
       <c r="G13" t="n">
         <v>12.6125</v>
@@ -1140,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1118005156608098</v>
+        <v>0.490196068819685</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6157037815126051</v>
+        <v>0.1536144573686312</v>
       </c>
       <c r="G14" t="n">
         <v>13.28</v>
@@ -1191,10 +1191,10 @@
         <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08683542232960838</v>
+        <v>-0.2272727221074382</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4596655089096947</v>
+        <v>0.06842923784070103</v>
       </c>
       <c r="G15" t="n">
         <v>9.318840579710145</v>
@@ -1242,10 +1242,10 @@
         <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1397062416141364</v>
+        <v>0.1186440657856938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3856236550973393</v>
+        <v>0.07692307682278608</v>
       </c>
       <c r="G16" t="n">
         <v>12.78333333333333</v>
@@ -1293,10 +1293,10 @@
         <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1397062416141364</v>
+        <v>0.1186440657856938</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3856236550973393</v>
+        <v>0.07692307682278608</v>
       </c>
       <c r="G17" t="n">
         <v>12.78333333333333</v>
@@ -1344,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08595124716553286</v>
+        <v>0.6363636247933887</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4594317692889121</v>
+        <v>0.07779349352504457</v>
       </c>
       <c r="G18" t="n">
         <v>10.87692307692308</v>
@@ -1395,10 +1395,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1009168548842462</v>
+        <v>0.5121951094586559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3092833615659702</v>
+        <v>0.05899280567051395</v>
       </c>
       <c r="G19" t="n">
         <v>15.44444444444444</v>
@@ -1446,10 +1446,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1829552245140481</v>
+        <v>0.7999999866666669</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5121269220975102</v>
+        <v>0.05842259001127303</v>
       </c>
       <c r="G20" t="n">
         <v>10.81052631578947</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1898242630385488</v>
+        <v>0.9999998571428775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4713151927437642</v>
+        <v>0.02611940288761417</v>
       </c>
       <c r="G21" t="n">
         <v>10.30769230769231</v>
@@ -1548,10 +1548,10 @@
         <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01508771929824561</v>
+        <v>-0.4193548319458898</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5669364699627857</v>
+        <v>0.09627329177597314</v>
       </c>
       <c r="G22" t="n">
         <v>12.88</v>
@@ -1599,10 +1599,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02123847167325429</v>
+        <v>0.09999999500000024</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5182971014492754</v>
+        <v>0.09132420049623653</v>
       </c>
       <c r="G23" t="n">
         <v>8.111111111111111</v>
@@ -1650,10 +1650,10 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1514928745220716</v>
+        <v>0.3170731629982155</v>
       </c>
       <c r="F24" t="n">
-        <v>0.402737805584521</v>
+        <v>0.0570236438706208</v>
       </c>
       <c r="G24" t="n">
         <v>11.234375</v>
@@ -1701,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0913095238095238</v>
+        <v>0.7272726942148775</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5600793650793651</v>
+        <v>0.06547619028132086</v>
       </c>
       <c r="G25" t="n">
         <v>16</v>
@@ -1752,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08185034013605444</v>
+        <v>0.1999999900000005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4335238095238094</v>
+        <v>0.033557046923562</v>
       </c>
       <c r="G26" t="n">
         <v>14.9</v>
@@ -1803,10 +1803,10 @@
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1339104882459313</v>
+        <v>0.1666666620370372</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4231118143459915</v>
+        <v>0.06196213414464349</v>
       </c>
       <c r="G27" t="n">
         <v>12.91111111111111</v>
@@ -1854,10 +1854,10 @@
         <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09198756747367857</v>
+        <v>-0.04347825992438566</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4525795346628678</v>
+        <v>0.0683506685462843</v>
       </c>
       <c r="G28" t="n">
         <v>12.69811320754717</v>
@@ -1905,10 +1905,10 @@
         <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1026578118850846</v>
+        <v>0.07407407270233199</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4222192050373868</v>
+        <v>0.07883211667323779</v>
       </c>
       <c r="G29" t="n">
         <v>15.56818181818182</v>
@@ -1956,10 +1956,10 @@
         <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1369364393776158</v>
+        <v>0.304347822778828</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4633642403348286</v>
+        <v>0.078565328711729</v>
       </c>
       <c r="G30" t="n">
         <v>15.20779220779221</v>
@@ -2007,10 +2007,10 @@
         <v>38</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07469251007613077</v>
+        <v>0.1739130415879017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4335961337513061</v>
+        <v>0.119170984301592</v>
       </c>
       <c r="G31" t="n">
         <v>9.65</v>
@@ -2058,10 +2058,10 @@
         <v>35</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1114697117950543</v>
+        <v>0.299999997</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4832005722587915</v>
+        <v>0.09727626449681297</v>
       </c>
       <c r="G32" t="n">
         <v>12.09411764705882</v>
@@ -2109,10 +2109,10 @@
         <v>25</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1420502827699797</v>
+        <v>0.3589743543721237</v>
       </c>
       <c r="F33" t="n">
-        <v>0.487386691591237</v>
+        <v>0.09582309570537703</v>
       </c>
       <c r="G33" t="n">
         <v>8.56842105263158</v>
@@ -2160,10 +2160,10 @@
         <v>24</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05169739373686746</v>
+        <v>0.3142857097959185</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5085004615267774</v>
+        <v>0.07028112442742859</v>
       </c>
       <c r="G34" t="n">
         <v>12.60759493670886</v>
@@ -2211,10 +2211,10 @@
         <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1210820885820885</v>
+        <v>0.3015872968002016</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4533339508339509</v>
+        <v>0.08502024280024259</v>
       </c>
       <c r="G35" t="n">
         <v>11.578125</v>
@@ -2262,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1469474366213497</v>
+        <v>0.3124999902343753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4169076092989136</v>
+        <v>0.07390300213879214</v>
       </c>
       <c r="G36" t="n">
         <v>9.622222222222222</v>
@@ -2313,10 +2313,10 @@
         <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>0.190176865507374</v>
+        <v>0.4347825992438565</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5664366057671143</v>
+        <v>0.1152882202624355</v>
       </c>
       <c r="G37" t="n">
         <v>11.08333333333333</v>
@@ -2364,10 +2364,10 @@
         <v>32</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1685887445887446</v>
+        <v>0.304347822778828</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5311564854898188</v>
+        <v>0.07986111104178722</v>
       </c>
       <c r="G38" t="n">
         <v>14.22222222222222</v>
@@ -2415,10 +2415,10 @@
         <v>54</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1162765048115367</v>
+        <v>-0.1020408152852978</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4650923740095715</v>
+        <v>0.07429871108847709</v>
       </c>
       <c r="G39" t="n">
         <v>12.68269230769231</v>
@@ -2466,10 +2466,10 @@
         <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1163937556154537</v>
+        <v>0.2399999952000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4197340316915787</v>
+        <v>0.07153075812370421</v>
       </c>
       <c r="G40" t="n">
         <v>12.05172413793103</v>
@@ -2517,10 +2517,10 @@
         <v>24</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1060793007020392</v>
+        <v>0.03999999920000002</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3785477329687856</v>
+        <v>0.06544502609234944</v>
       </c>
       <c r="G41" t="n">
         <v>9.317073170731707</v>
@@ -2568,10 +2568,10 @@
         <v>24</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1475551531801532</v>
+        <v>0.3999999950000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4012096237096235</v>
+        <v>0.09975062331701917</v>
       </c>
       <c r="G42" t="n">
         <v>11.97014925373134</v>
@@ -2619,10 +2619,10 @@
         <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06067077536543188</v>
+        <v>0.4936708798269509</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4665985096328609</v>
+        <v>0.08431163278088406</v>
       </c>
       <c r="G43" t="n">
         <v>11.15476190476191</v>
@@ -2670,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1761308203991131</v>
+        <v>0.999999958333335</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5311677753141167</v>
+        <v>0.07894736816135735</v>
       </c>
       <c r="G44" t="n">
         <v>13.81818181818182</v>
@@ -2721,10 +2721,10 @@
         <v>39</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1326305759457933</v>
+        <v>0.3097345105333229</v>
       </c>
       <c r="F45" t="n">
-        <v>0.504171019198193</v>
+        <v>0.1510695185146129</v>
       </c>
       <c r="G45" t="n">
         <v>83.11111111111111</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1823644609358894</v>
+        <v>0.999999956521741</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4481923830138116</v>
+        <v>0.04049295767518846</v>
       </c>
       <c r="G46" t="n">
         <v>10.14285714285714</v>
@@ -2823,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08763167388167389</v>
+        <v>0.4736841855955691</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3434217171717172</v>
+        <v>0.04194260476392361</v>
       </c>
       <c r="G47" t="n">
         <v>11.325</v>
@@ -2874,10 +2874,10 @@
         <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09166796166796166</v>
+        <v>-0.1428571224489825</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3912768712768713</v>
+        <v>0.03977272704674587</v>
       </c>
       <c r="G48" t="n">
         <v>14.66666666666667</v>
@@ -2925,10 +2925,10 @@
         <v>67</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0441591080876795</v>
+        <v>-0.4888888834567902</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3958860980289551</v>
+        <v>0.1136363634928834</v>
       </c>
       <c r="G49" t="n">
         <v>14.14285714285714</v>
@@ -2976,10 +2976,10 @@
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1559382284382284</v>
+        <v>0.03225806347554633</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4100283050283051</v>
+        <v>0.07868020284598934</v>
       </c>
       <c r="G50" t="n">
         <v>13.58620689655172</v>
@@ -3027,10 +3027,10 @@
         <v>38</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1919355853526709</v>
+        <v>0.1827956969591861</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4757927332299194</v>
+        <v>0.09365558902955128</v>
       </c>
       <c r="G51" t="n">
         <v>8.945945945945946</v>
@@ -3078,10 +3078,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2718864468864469</v>
+        <v>0.8636363440082649</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5027521367521367</v>
+        <v>0.107579461839659</v>
       </c>
       <c r="G52" t="n">
         <v>9.295454545454545</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1285289115646258</v>
+        <v>0.9999996666667778</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4375850340136054</v>
+        <v>0.01357466057206036</v>
       </c>
       <c r="G53" t="n">
         <v>13</v>
@@ -3180,10 +3180,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1524202551834131</v>
+        <v>0.3749999882812504</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4593939393939394</v>
+        <v>0.04221635878335573</v>
       </c>
       <c r="G54" t="n">
         <v>13.78181818181818</v>
@@ -3231,10 +3231,10 @@
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1259626881055453</v>
+        <v>0.4482758466111777</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3756125884697314</v>
+        <v>0.07231920181466533</v>
       </c>
       <c r="G55" t="n">
         <v>16.70833333333333</v>
@@ -3282,10 +3282,10 @@
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2274494949494949</v>
+        <v>0.272727260330579</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5095454545454545</v>
+        <v>0.1128205122419461</v>
       </c>
       <c r="G56" t="n">
         <v>6.964285714285714</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04611801242236026</v>
+        <v>0.9999997500000625</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2803312629399586</v>
+        <v>0.03883495107927232</v>
       </c>
       <c r="G57" t="n">
         <v>9.363636363636363</v>
@@ -3384,10 +3384,10 @@
         <v>33</v>
       </c>
       <c r="E58" t="n">
-        <v>0.05008615288220553</v>
+        <v>-0.2452830142399431</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4813596491228072</v>
+        <v>0.1191011233278626</v>
       </c>
       <c r="G58" t="n">
         <v>7.946428571428571</v>
@@ -3435,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3378571428571428</v>
+        <v>0.4285713673469475</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4564285714285715</v>
+        <v>0.07291666590711807</v>
       </c>
       <c r="G59" t="n">
         <v>9.6</v>
@@ -3486,10 +3486,10 @@
         <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09398727844482561</v>
+        <v>0.4285714217687076</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3939451114922812</v>
+        <v>0.0808729138884815</v>
       </c>
       <c r="G60" t="n">
         <v>12.56451612903226</v>
@@ -3537,10 +3537,10 @@
         <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05044427511264245</v>
+        <v>-0.4166666493055562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3972620151956887</v>
+        <v>0.07947019841235034</v>
       </c>
       <c r="G61" t="n">
         <v>9.741935483870968</v>
@@ -3588,10 +3588,10 @@
         <v>37</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03847287813196904</v>
+        <v>-0.2333333294444445</v>
       </c>
       <c r="F62" t="n">
-        <v>0.476901236389873</v>
+        <v>0.1058201056334742</v>
       </c>
       <c r="G62" t="n">
         <v>10.30909090909091</v>
@@ -3639,10 +3639,10 @@
         <v>48</v>
       </c>
       <c r="E63" t="n">
-        <v>0.08824155360468211</v>
+        <v>-0.2972972932797663</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4025685022612396</v>
+        <v>0.07156673107198575</v>
       </c>
       <c r="G63" t="n">
         <v>13.97297297297297</v>
@@ -3690,10 +3690,10 @@
         <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1243234224484225</v>
+        <v>0.3124999951171876</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4999897174897173</v>
+        <v>0.07573964488078148</v>
       </c>
       <c r="G64" t="n">
         <v>12.2463768115942</v>
@@ -3741,10 +3741,10 @@
         <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06454872646733112</v>
+        <v>0.1153846131656805</v>
       </c>
       <c r="F65" t="n">
-        <v>0.398343484680694</v>
+        <v>0.06318347501435786</v>
       </c>
       <c r="G65" t="n">
         <v>10.03658536585366</v>
@@ -3792,10 +3792,10 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1784992784992785</v>
+        <v>0.5333333155555561</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4728105228105229</v>
+        <v>0.07194244587064162</v>
       </c>
       <c r="G66" t="n">
         <v>6.725806451612903</v>
@@ -3843,10 +3843,10 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2201765188834155</v>
+        <v>0.6888888735802473</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4368431855500822</v>
+        <v>0.06787330306504781</v>
       </c>
       <c r="G67" t="n">
         <v>10.04545454545454</v>
@@ -3894,10 +3894,10 @@
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2539562289562289</v>
+        <v>0.6249999804687506</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5148629148629151</v>
+        <v>0.1495327095816228</v>
       </c>
       <c r="G68" t="n">
         <v>13.375</v>
@@ -3945,10 +3945,10 @@
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1215561091207643</v>
+        <v>0.4230769149408286</v>
       </c>
       <c r="F69" t="n">
-        <v>0.453966608104539</v>
+        <v>0.05790645873284359</v>
       </c>
       <c r="G69" t="n">
         <v>12.82857142857143</v>
@@ -3996,10 +3996,10 @@
         <v>65</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07680677032717849</v>
+        <v>-0.5116279010275826</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5767808551992226</v>
+        <v>0.1625708881614917</v>
       </c>
       <c r="G70" t="n">
         <v>6.87012987012987</v>
@@ -4047,10 +4047,10 @@
         <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2759697699304441</v>
+        <v>0.4499999943750001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6334269662921347</v>
+        <v>0.1286173631372711</v>
       </c>
       <c r="G71" t="n">
         <v>7.775</v>
@@ -4098,10 +4098,10 @@
         <v>31</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1009192539837701</v>
+        <v>-0.2399999952000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4326186239089466</v>
+        <v>0.07102272717184271</v>
       </c>
       <c r="G72" t="n">
         <v>12.57142857142857</v>
@@ -4149,10 +4149,10 @@
         <v>23</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1018683187560739</v>
+        <v>0.09803921376393698</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3550147981270432</v>
+        <v>0.05585980278657196</v>
       </c>
       <c r="G73" t="n">
         <v>11.13414634146342</v>
@@ -4200,10 +4200,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07263869992441419</v>
+        <v>-0.5531914834766863</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5635668934240364</v>
+        <v>0.1681574236705592</v>
       </c>
       <c r="G74" t="n">
         <v>7.075949367088608</v>
@@ -4251,10 +4251,10 @@
         <v>39</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02585323049778025</v>
+        <v>0.08235294020761247</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4489894281600444</v>
+        <v>0.08854166657443577</v>
       </c>
       <c r="G75" t="n">
         <v>12.97297297297297</v>
@@ -4302,10 +4302,10 @@
         <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06537518037518036</v>
+        <v>0.2777777700617286</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4051252100390031</v>
+        <v>0.08144796361663356</v>
       </c>
       <c r="G76" t="n">
         <v>16.37037037037037</v>
@@ -4353,10 +4353,10 @@
         <v>24</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06364806364806361</v>
+        <v>0.1999999966666667</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3976110226110225</v>
+        <v>0.08368200825148953</v>
       </c>
       <c r="G77" t="n">
         <v>17.48780487804878</v>
@@ -4404,10 +4404,10 @@
         <v>47</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07158336966790203</v>
+        <v>-0.2051282024983564</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4132259946288723</v>
+        <v>0.07918781717848952</v>
       </c>
       <c r="G78" t="n">
         <v>12.46835443037975</v>
@@ -4455,10 +4455,10 @@
         <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04960279082619508</v>
+        <v>0.2903225712799171</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3315663503163504</v>
+        <v>0.01386404292761</v>
       </c>
       <c r="G79" t="n">
         <v>11.46666666666667</v>
@@ -4506,10 +4506,10 @@
         <v>42</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01957226870817475</v>
+        <v>-0.1052631565096953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4612459203734371</v>
+        <v>0.08189655163588734</v>
       </c>
       <c r="G80" t="n">
         <v>11.18072289156627</v>
@@ -4557,10 +4557,10 @@
         <v>65</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01881493506493507</v>
+        <v>-0.3978494580876403</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3716767676767675</v>
+        <v>0.09422492391669207</v>
       </c>
       <c r="G81" t="n">
         <v>16.45</v>
@@ -4608,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2584290709290709</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4681610056610056</v>
+        <v>0.07228915575555234</v>
       </c>
       <c r="G82" t="n">
         <v>9.222222222222221</v>
@@ -4659,10 +4659,10 @@
         <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1582658321060383</v>
+        <v>0.7499999765625008</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4762211585665194</v>
+        <v>0.05306799327849421</v>
       </c>
       <c r="G83" t="n">
         <v>12.82978723404255</v>
@@ -4710,10 +4710,10 @@
         <v>30</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1096026770164701</v>
+        <v>0.09090908953168046</v>
       </c>
       <c r="F84" t="n">
-        <v>0.431176046176046</v>
+        <v>0.07551487405547497</v>
       </c>
       <c r="G84" t="n">
         <v>7.283333333333333</v>
@@ -4761,10 +4761,10 @@
         <v>14</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1578853736702575</v>
+        <v>0.5087719208987382</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4301200801782199</v>
+        <v>0.05632411061628052</v>
       </c>
       <c r="G85" t="n">
         <v>10.76595744680851</v>
@@ -4812,10 +4812,10 @@
         <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09475304998032269</v>
+        <v>-0.05263157802400741</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4424435980685981</v>
+        <v>0.09579831916672552</v>
       </c>
       <c r="G86" t="n">
         <v>12.65957446808511</v>
@@ -4863,10 +4863,10 @@
         <v>41</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02695842781557068</v>
+        <v>-0.4642857059948981</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4134610733182162</v>
+        <v>0.05063291134662485</v>
       </c>
       <c r="G87" t="n">
         <v>17.28125</v>
@@ -4914,10 +4914,10 @@
         <v>41</v>
       </c>
       <c r="E88" t="n">
-        <v>0.09040889103389101</v>
+        <v>-0.5185185089163239</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4403142428142426</v>
+        <v>0.09591474228079086</v>
       </c>
       <c r="G88" t="n">
         <v>10.82692307692308</v>
@@ -4965,10 +4965,10 @@
         <v>44</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1154110735203172</v>
+        <v>-0.157894734764543</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4450622067008624</v>
+        <v>0.1206349204434366</v>
       </c>
       <c r="G89" t="n">
         <v>8.513513513513514</v>
@@ -5016,10 +5016,10 @@
         <v>26</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07701032059727714</v>
+        <v>-0.1555555520987655</v>
       </c>
       <c r="F90" t="n">
-        <v>0.432465963987703</v>
+        <v>0.08522727256585744</v>
       </c>
       <c r="G90" t="n">
         <v>13.89473684210526</v>
@@ -5067,10 +5067,10 @@
         <v>37</v>
       </c>
       <c r="E91" t="n">
-        <v>0.08137906615497077</v>
+        <v>-0.3454545391735538</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3324716462874358</v>
+        <v>0.06658595633585235</v>
       </c>
       <c r="G91" t="n">
         <v>14</v>
@@ -5118,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2732548701298702</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4249120670995671</v>
+        <v>0.06896551644867223</v>
       </c>
       <c r="G92" t="n">
         <v>7.909090909090909</v>
@@ -5169,10 +5169,10 @@
         <v>44</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07338395111832612</v>
+        <v>-0.2222222191358025</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4424512987012986</v>
+        <v>0.1128526643999175</v>
       </c>
       <c r="G93" t="n">
         <v>10.12698412698413</v>
@@ -5220,10 +5220,10 @@
         <v>24</v>
       </c>
       <c r="E94" t="n">
-        <v>0.05948027068716724</v>
+        <v>-0.6551723912009521</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4058518110242248</v>
+        <v>0.07021791750552563</v>
       </c>
       <c r="G94" t="n">
         <v>11.8</v>
@@ -5271,10 +5271,10 @@
         <v>52</v>
       </c>
       <c r="E95" t="n">
-        <v>0.05715384749658943</v>
+        <v>-0.3333333290598291</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3914643689643688</v>
+        <v>0.1226415092411297</v>
       </c>
       <c r="G95" t="n">
         <v>12.72</v>
@@ -5322,10 +5322,10 @@
         <v>34</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06413482834994465</v>
+        <v>-0.2142857104591838</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4360065806286736</v>
+        <v>0.1081081078994052</v>
       </c>
       <c r="G96" t="n">
         <v>13.63157894736842</v>
@@ -5373,10 +5373,10 @@
         <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1039523809523809</v>
+        <v>0.4285713673469475</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4373333333333333</v>
+        <v>0.02681992326888918</v>
       </c>
       <c r="G97" t="n">
         <v>11.86363636363636</v>
@@ -5424,10 +5424,10 @@
         <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>0.09073063973063976</v>
+        <v>0.5999999600000027</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3884276094276094</v>
+        <v>0.04310344815200159</v>
       </c>
       <c r="G98" t="n">
         <v>10.54545454545454</v>
@@ -5475,10 +5475,10 @@
         <v>54</v>
       </c>
       <c r="E99" t="n">
-        <v>0.08566630591630595</v>
+        <v>-0.2705882321107267</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4127038239538239</v>
+        <v>0.1291793311106697</v>
       </c>
       <c r="G99" t="n">
         <v>20.5625</v>
